--- a/data/network.xlsx
+++ b/data/network.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="982" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Network Probabilities" sheetId="1" state="visible" r:id="rId2"/>
@@ -97,6 +97,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -118,6 +119,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -171,7 +173,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -228,9 +230,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -428,6 +430,9 @@
       <c r="D15" s="6" t="n">
         <v>0.8126667</v>
       </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
@@ -663,15 +668,15 @@
   </sheetPr>
   <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A27" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G38" activeCellId="0" sqref="G38"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J50" activeCellId="0" sqref="J50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="6" min="4" style="7" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="6" min="4" style="7" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1271,6 +1276,11 @@
       <c r="F31" s="9" t="n">
         <v>0.929</v>
       </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D32" s="0"/>
+      <c r="E32" s="0"/>
+      <c r="F32" s="0"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
@@ -1877,9 +1887,81 @@
     <mergeCell ref="A33:F33"/>
     <mergeCell ref="A34:F34"/>
   </mergeCells>
+  <conditionalFormatting sqref="D4:D31">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="0.5"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00CC00"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4:E31">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="0.5"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00CC00"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4:F31">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="0.5"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FF00CC00"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D36:D63">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="0.5"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00CC00"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E36:E63">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="0.5"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00CC00"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F36:F63">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="0.5"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FF00CC00"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
